--- a/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_2/bcw_train_80_test_20_depth_2_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_2/bcw_train_80_test_20_depth_2_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>0.8470588235294118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9171974522292994</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859649122807017</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.884375</v>
+        <v>0.9235294117647059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9067460317460317</v>
+        <v>0.8452380952380952</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8906649616368286</v>
+        <v>0.8670494303400018</v>
       </c>
       <c r="E5" t="n">
         <v>114</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.906578947368421</v>
+        <v>0.9034055727554179</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8859649122807017</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8962175259119666</v>
+        <v>0.8802462782056064</v>
       </c>
       <c r="E6" t="n">
         <v>114</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_2/bcw_train_80_test_20_depth_2_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_80_test_20/depth_2/bcw_train_80_test_20_depth_2_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8470588235294118</v>
+        <v>0.85</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9171974522292994</v>
+        <v>0.92</v>
       </c>
       <c r="E2" t="n">
         <v>72</v>
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8169014084507042</v>
+        <v>0.82</v>
       </c>
       <c r="E3" t="n">
         <v>42</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.8859649122807017</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8859649122807017</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.8859649122807017</v>
+        <v>0.89</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8859649122807017</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9235294117647059</v>
+        <v>0.92</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8452380952380952</v>
+        <v>0.85</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8670494303400018</v>
+        <v>0.87</v>
       </c>
       <c r="E5" t="n">
         <v>114</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9034055727554179</v>
+        <v>0.9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8859649122807017</v>
+        <v>0.89</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8802462782056064</v>
+        <v>0.88</v>
       </c>
       <c r="E6" t="n">
         <v>114</v>
